--- a/artfynd/A 50292-2021.xlsx
+++ b/artfynd/A 50292-2021.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY12"/>
+  <dimension ref="A1:AY13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2115,6 +2115,140 @@
         </is>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>112205187</v>
+      </c>
+      <c r="B13" t="n">
+        <v>90662</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>4363</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Zontaggsvamp</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Hydnellum concrescens</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>(Pers.) Banker</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Baggetorp, Nrk</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>478586.2573052422</v>
+      </c>
+      <c r="R13" t="n">
+        <v>6556136.916654737</v>
+      </c>
+      <c r="S13" t="n">
+        <v>10</v>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>Lekeberg</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>Närke</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>Kvistbro</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF13" t="inlineStr"/>
+      <c r="AG13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>Blåbärsbarrskog</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>i yta bökad av vildsvin</t>
+        </is>
+      </c>
+      <c r="AT13" t="inlineStr"/>
+      <c r="AW13" t="inlineStr">
+        <is>
+          <t>Michael Andersson</t>
+        </is>
+      </c>
+      <c r="AX13" t="inlineStr">
+        <is>
+          <t>Michael Andersson</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 50292-2021.xlsx
+++ b/artfynd/A 50292-2021.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY13"/>
+  <dimension ref="A1:AY15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2168,10 +2168,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>478586.2573052422</v>
+        <v>478586</v>
       </c>
       <c r="R13" t="n">
-        <v>6556136.916654737</v>
+        <v>6556137</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2201,19 +2201,9 @@
           <t>2023-09-19</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA13" t="inlineStr">
         <is>
           <t>2023-09-19</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2248,6 +2238,252 @@
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>112231588</v>
+      </c>
+      <c r="B14" t="n">
+        <v>93171</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>2818</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Stubbspretmossa</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Herzogiella seligeri</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>(Brid.) Z.Iwats.</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Baggetorp, Nrk</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>478719</v>
+      </c>
+      <c r="R14" t="n">
+        <v>6556487</v>
+      </c>
+      <c r="S14" t="n">
+        <v>10</v>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>Lekeberg</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>Närke</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>Kvistbro</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="AD14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF14" t="inlineStr"/>
+      <c r="AG14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>Blåbärsbarrskog</t>
+        </is>
+      </c>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AM14" t="inlineStr">
+        <is>
+          <t>Liggande död trädstam, markontakt</t>
+        </is>
+      </c>
+      <c r="AO14" t="inlineStr">
+        <is>
+          <t>Horizontal, dead with ground contact # murken grov låga # Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AT14" t="inlineStr"/>
+      <c r="AW14" t="inlineStr">
+        <is>
+          <t>Michael Andersson</t>
+        </is>
+      </c>
+      <c r="AX14" t="inlineStr">
+        <is>
+          <t>Michael Andersson</t>
+        </is>
+      </c>
+      <c r="AY14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>112231491</v>
+      </c>
+      <c r="B15" t="n">
+        <v>56543</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>103021</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Talltita</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Poecile montanus</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr"/>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Baggetorp, Nrk</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>478579</v>
+      </c>
+      <c r="R15" t="n">
+        <v>6556322</v>
+      </c>
+      <c r="S15" t="n">
+        <v>10</v>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>Lekeberg</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>Närke</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>Kvistbro</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="AD15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT15" t="inlineStr"/>
+      <c r="AW15" t="inlineStr">
+        <is>
+          <t>Michael Andersson</t>
+        </is>
+      </c>
+      <c r="AX15" t="inlineStr">
+        <is>
+          <t>Michael Andersson</t>
+        </is>
+      </c>
+      <c r="AY15" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 50292-2021.xlsx
+++ b/artfynd/A 50292-2021.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY15"/>
+  <dimension ref="A1:AY16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2117,10 +2117,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112205187</v>
+        <v>112231588</v>
       </c>
       <c r="B13" t="n">
-        <v>90662</v>
+        <v>93320</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2133,34 +2133,27 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>4363</v>
+        <v>2818</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Zontaggsvamp</t>
+          <t>Stubbspretmossa</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hydnellum concrescens</t>
+          <t>Herzogiella seligeri</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Pers.) Banker</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>mycel</t>
-        </is>
-      </c>
+          <t>(Brid.) Z.Iwats.</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
@@ -2168,10 +2161,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>478586</v>
+        <v>478719</v>
       </c>
       <c r="R13" t="n">
-        <v>6556137</v>
+        <v>6556487</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2221,9 +2214,24 @@
           <t>Blåbärsbarrskog</t>
         </is>
       </c>
-      <c r="AI13" t="inlineStr">
-        <is>
-          <t>i yta bökad av vildsvin</t>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AM13" t="inlineStr">
+        <is>
+          <t>Liggande död trädstam, markontakt</t>
+        </is>
+      </c>
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>Horizontal, dead with ground contact # murken grov låga # Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>
@@ -2237,14 +2245,18 @@
           <t>Michael Andersson</t>
         </is>
       </c>
-      <c r="AY13" t="inlineStr"/>
+      <c r="AY13" t="inlineStr">
+        <is>
+          <t>Länsstyrelsen i Örebro län, inventering</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112231588</v>
+        <v>112269209</v>
       </c>
       <c r="B14" t="n">
-        <v>93171</v>
+        <v>56446</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2253,31 +2265,39 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>2818</v>
+        <v>100049</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Stubbspretmossa</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Herzogiella seligeri</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Brid.) Z.Iwats.</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
       <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
@@ -2285,13 +2305,13 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>478719</v>
+        <v>478539</v>
       </c>
       <c r="R14" t="n">
-        <v>6556487</v>
+        <v>6556219</v>
       </c>
       <c r="S14" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2329,34 +2349,8 @@
       <c r="AE14" t="b">
         <v>0</v>
       </c>
-      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
-      </c>
-      <c r="AH14" t="inlineStr">
-        <is>
-          <t>Blåbärsbarrskog</t>
-        </is>
-      </c>
-      <c r="AJ14" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK14" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AM14" t="inlineStr">
-        <is>
-          <t>Liggande död trädstam, markontakt</t>
-        </is>
-      </c>
-      <c r="AO14" t="inlineStr">
-        <is>
-          <t>Horizontal, dead with ground contact # murken grov låga # Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
@@ -2376,7 +2370,7 @@
         <v>112231491</v>
       </c>
       <c r="B15" t="n">
-        <v>56543</v>
+        <v>56575</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2483,7 +2477,139 @@
           <t>Michael Andersson</t>
         </is>
       </c>
-      <c r="AY15" t="inlineStr"/>
+      <c r="AY15" t="inlineStr">
+        <is>
+          <t>Länsstyrelsen i Örebro län, inventering</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>112205187</v>
+      </c>
+      <c r="B16" t="n">
+        <v>90796</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>4363</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Zontaggsvamp</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Hydnellum concrescens</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>(Pers.) Banker</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Baggetorp, Nrk</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>478586</v>
+      </c>
+      <c r="R16" t="n">
+        <v>6556137</v>
+      </c>
+      <c r="S16" t="n">
+        <v>10</v>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>Lekeberg</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>Närke</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>Kvistbro</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="AD16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF16" t="inlineStr"/>
+      <c r="AG16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH16" t="inlineStr">
+        <is>
+          <t>Blåbärsbarrskog</t>
+        </is>
+      </c>
+      <c r="AI16" t="inlineStr">
+        <is>
+          <t>i yta bökad av vildsvin</t>
+        </is>
+      </c>
+      <c r="AT16" t="inlineStr"/>
+      <c r="AW16" t="inlineStr">
+        <is>
+          <t>Michael Andersson</t>
+        </is>
+      </c>
+      <c r="AX16" t="inlineStr">
+        <is>
+          <t>Michael Andersson</t>
+        </is>
+      </c>
+      <c r="AY16" t="inlineStr">
+        <is>
+          <t>Länsstyrelsen i Örebro län, inventering</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 50292-2021.xlsx
+++ b/artfynd/A 50292-2021.xlsx
@@ -2120,7 +2120,7 @@
         <v>112231588</v>
       </c>
       <c r="B13" t="n">
-        <v>93320</v>
+        <v>93334</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2253,10 +2253,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112269209</v>
+        <v>112231491</v>
       </c>
       <c r="B14" t="n">
-        <v>56446</v>
+        <v>56575</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2269,21 +2269,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>100049</v>
+        <v>103021</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -2305,13 +2305,13 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>478539</v>
+        <v>478579</v>
       </c>
       <c r="R14" t="n">
-        <v>6556219</v>
+        <v>6556322</v>
       </c>
       <c r="S14" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2363,14 +2363,18 @@
           <t>Michael Andersson</t>
         </is>
       </c>
-      <c r="AY14" t="inlineStr"/>
+      <c r="AY14" t="inlineStr">
+        <is>
+          <t>Länsstyrelsen i Örebro län, inventering</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112231491</v>
+        <v>112205187</v>
       </c>
       <c r="B15" t="n">
-        <v>56575</v>
+        <v>90810</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2379,25 +2383,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>103021</v>
+        <v>4363</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Zontaggsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Hydnellum concrescens</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Pers.) Banker</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -2405,13 +2409,12 @@
           <t>1</t>
         </is>
       </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
@@ -2419,10 +2422,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>478579</v>
+        <v>478586</v>
       </c>
       <c r="R15" t="n">
-        <v>6556322</v>
+        <v>6556137</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2463,8 +2466,19 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
+      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
+      </c>
+      <c r="AH15" t="inlineStr">
+        <is>
+          <t>Blåbärsbarrskog</t>
+        </is>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>i yta bökad av vildsvin</t>
+        </is>
       </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
@@ -2485,10 +2499,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112205187</v>
+        <v>112269209</v>
       </c>
       <c r="B16" t="n">
-        <v>90796</v>
+        <v>56446</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2497,25 +2511,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>4363</v>
+        <v>100049</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Zontaggsvamp</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hydnellum concrescens</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Pers.) Banker</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -2523,12 +2537,13 @@
           <t>1</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>mycel</t>
-        </is>
-      </c>
       <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
       <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
@@ -2536,13 +2551,13 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>478586</v>
+        <v>478539</v>
       </c>
       <c r="R16" t="n">
-        <v>6556137</v>
+        <v>6556219</v>
       </c>
       <c r="S16" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2580,19 +2595,8 @@
       <c r="AE16" t="b">
         <v>0</v>
       </c>
-      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
-      </c>
-      <c r="AH16" t="inlineStr">
-        <is>
-          <t>Blåbärsbarrskog</t>
-        </is>
-      </c>
-      <c r="AI16" t="inlineStr">
-        <is>
-          <t>i yta bökad av vildsvin</t>
-        </is>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
@@ -2605,11 +2609,7 @@
           <t>Michael Andersson</t>
         </is>
       </c>
-      <c r="AY16" t="inlineStr">
-        <is>
-          <t>Länsstyrelsen i Örebro län, inventering</t>
-        </is>
-      </c>
+      <c r="AY16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 50292-2021.xlsx
+++ b/artfynd/A 50292-2021.xlsx
@@ -2117,10 +2117,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112231588</v>
+        <v>112205187</v>
       </c>
       <c r="B13" t="n">
-        <v>93334</v>
+        <v>90810</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2133,27 +2133,34 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>2818</v>
+        <v>4363</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Stubbspretmossa</t>
+          <t>Zontaggsvamp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Herzogiella seligeri</t>
+          <t>Hydnellum concrescens</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Brid.) Z.Iwats.</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+          <t>(Pers.) Banker</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
@@ -2161,10 +2168,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>478719</v>
+        <v>478586</v>
       </c>
       <c r="R13" t="n">
-        <v>6556487</v>
+        <v>6556137</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2214,24 +2221,9 @@
           <t>Blåbärsbarrskog</t>
         </is>
       </c>
-      <c r="AJ13" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK13" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AM13" t="inlineStr">
-        <is>
-          <t>Liggande död trädstam, markontakt</t>
-        </is>
-      </c>
-      <c r="AO13" t="inlineStr">
-        <is>
-          <t>Horizontal, dead with ground contact # murken grov låga # Pinus sylvestris</t>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>i yta bökad av vildsvin</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>
@@ -2253,10 +2245,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112231491</v>
+        <v>112231588</v>
       </c>
       <c r="B14" t="n">
-        <v>56575</v>
+        <v>93334</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2265,39 +2257,31 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>103021</v>
+        <v>2818</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Stubbspretmossa</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Herzogiella seligeri</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Brid.) Z.Iwats.</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
       <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
@@ -2305,10 +2289,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>478579</v>
+        <v>478719</v>
       </c>
       <c r="R14" t="n">
-        <v>6556322</v>
+        <v>6556487</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2349,8 +2333,34 @@
       <c r="AE14" t="b">
         <v>0</v>
       </c>
+      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
+      </c>
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>Blåbärsbarrskog</t>
+        </is>
+      </c>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AM14" t="inlineStr">
+        <is>
+          <t>Liggande död trädstam, markontakt</t>
+        </is>
+      </c>
+      <c r="AO14" t="inlineStr">
+        <is>
+          <t>Horizontal, dead with ground contact # murken grov låga # Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
@@ -2371,10 +2381,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112205187</v>
+        <v>112231491</v>
       </c>
       <c r="B15" t="n">
-        <v>90810</v>
+        <v>56575</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2383,25 +2393,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>4363</v>
+        <v>103021</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Zontaggsvamp</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hydnellum concrescens</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Pers.) Banker</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -2409,12 +2419,13 @@
           <t>1</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>mycel</t>
-        </is>
-      </c>
       <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
@@ -2422,10 +2433,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>478586</v>
+        <v>478579</v>
       </c>
       <c r="R15" t="n">
-        <v>6556137</v>
+        <v>6556322</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2466,19 +2477,8 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
-      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
-      </c>
-      <c r="AH15" t="inlineStr">
-        <is>
-          <t>Blåbärsbarrskog</t>
-        </is>
-      </c>
-      <c r="AI15" t="inlineStr">
-        <is>
-          <t>i yta bökad av vildsvin</t>
-        </is>
       </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
